--- a/output7/【河洛文讀注音-閩拼調號】《中庸》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《中庸》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138A9965-7106-4EE8-9ADB-39C617C92CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CAD2EFF-3F0F-462C-BA26-A9C832AB6064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -14040,11 +14040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V1409"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D106" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D1393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R120" sqref="R120"/>
+      <selection pane="bottomRight" activeCell="A1409" sqref="A1409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -73497,7 +73497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AA0921-9066-4103-80B8-9204349C5F89}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/output7/【河洛文讀注音-閩拼調號】《中庸》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《中庸》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F03CAC8-ECA7-4103-87F3-20451C49F4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60B7095-EA68-4097-873E-4B6EB0D8BBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView minimized="1" xWindow="-27600" yWindow="1650" windowWidth="21990" windowHeight="12270" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -13841,7 +13841,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -14007,7 +14007,7 @@
         <v>1156</v>
       </c>
       <c r="C20" s="46">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
